--- a/03-pandas/df1.xlsx
+++ b/03-pandas/df1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="44">
   <si>
     <t>Format Type</t>
   </si>
@@ -137,9 +137,6 @@
   </si>
   <si>
     <t>to_stata</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>to_pickle</t>
@@ -692,9 +689,6 @@
       <c r="D11" t="s">
         <v>28</v>
       </c>
-      <c r="E11" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="1">
@@ -710,7 +704,7 @@
         <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -727,7 +721,7 @@
         <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -744,7 +738,7 @@
         <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
